--- a/Energy/Motion controlled lights/motion_controlled_lights_master.xlsx
+++ b/Energy/Motion controlled lights/motion_controlled_lights_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Components</t>
   </si>
@@ -165,15 +165,9 @@
     <t>Echo to D8(digital pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload the code attached.</t>
-  </si>
-  <si>
     <t>GND to GND(breadboard)- series connection - connect to a hole in the same metal strip as that of GND connection from Arduino UNO to breadboard</t>
   </si>
   <si>
-    <t>Upload final code</t>
-  </si>
-  <si>
     <t>Ultrasonic sensor(2)</t>
   </si>
   <si>
@@ -195,13 +189,25 @@
     <t>Echo to D811(digital pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To check the working of the sensor,upload the code attached.</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
     <t>Fix the ultrasonic sensors in a horizontal line on a fixed structure near the entrance.</t>
+  </si>
+  <si>
+    <t>Code001</t>
+  </si>
+  <si>
+    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload code001.</t>
+  </si>
+  <si>
+    <t>To check the working of the sensor,upload code002.</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Upload code003</t>
+  </si>
+  <si>
+    <t>Code003</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,10 +719,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
@@ -809,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,16 +872,14 @@
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
@@ -883,9 +887,12 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -893,28 +900,28 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -985,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="4"/>
@@ -995,17 +1002,17 @@
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D13" r:id="rId2"/>
-    <hyperlink ref="D25" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="D25" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
